--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Tgfb3-Tgfbr2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Tgfb3-Tgfbr2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.849786388129291</v>
+        <v>1.277420333333333</v>
       </c>
       <c r="H2">
-        <v>0.849786388129291</v>
+        <v>3.832261</v>
       </c>
       <c r="I2">
-        <v>0.01329162315563111</v>
+        <v>0.01913942624337554</v>
       </c>
       <c r="J2">
-        <v>0.01329162315563111</v>
+        <v>0.01913942624337554</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.0375747557458</v>
+        <v>28.21795633333333</v>
       </c>
       <c r="N2">
-        <v>21.0375747557458</v>
+        <v>84.653869</v>
       </c>
       <c r="O2">
-        <v>0.1692618942090072</v>
+        <v>0.2124568395711989</v>
       </c>
       <c r="P2">
-        <v>0.1692618942090072</v>
+        <v>0.212456839571199</v>
       </c>
       <c r="Q2">
-        <v>17.87744466668518</v>
+        <v>36.04619118531211</v>
       </c>
       <c r="R2">
-        <v>17.87744466668518</v>
+        <v>324.415720667809</v>
       </c>
       <c r="S2">
-        <v>0.002249765312434424</v>
+        <v>0.004066302010873632</v>
       </c>
       <c r="T2">
-        <v>0.002249765312434424</v>
+        <v>0.004066302010873633</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.849786388129291</v>
+        <v>1.277420333333333</v>
       </c>
       <c r="H3">
-        <v>0.849786388129291</v>
+        <v>3.832261</v>
       </c>
       <c r="I3">
-        <v>0.01329162315563111</v>
+        <v>0.01913942624337554</v>
       </c>
       <c r="J3">
-        <v>0.01329162315563111</v>
+        <v>0.01913942624337554</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>63.0818615972562</v>
+        <v>63.95730733333333</v>
       </c>
       <c r="N3">
-        <v>63.0818615972562</v>
+        <v>191.871922</v>
       </c>
       <c r="O3">
-        <v>0.5075373710206688</v>
+        <v>0.4815432848151522</v>
       </c>
       <c r="P3">
-        <v>0.5075373710206688</v>
+        <v>0.4815432848151524</v>
       </c>
       <c r="Q3">
-        <v>53.60610732320417</v>
+        <v>81.70036485284911</v>
       </c>
       <c r="R3">
-        <v>53.60610732320417</v>
+        <v>735.303283675642</v>
       </c>
       <c r="S3">
-        <v>0.006745995473006461</v>
+        <v>0.009216462182712389</v>
       </c>
       <c r="T3">
-        <v>0.006745995473006461</v>
+        <v>0.00921646218271239</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.849786388129291</v>
+        <v>1.277420333333333</v>
       </c>
       <c r="H4">
-        <v>0.849786388129291</v>
+        <v>3.832261</v>
       </c>
       <c r="I4">
-        <v>0.01329162315563111</v>
+        <v>0.01913942624337554</v>
       </c>
       <c r="J4">
-        <v>0.01329162315563111</v>
+        <v>0.01913942624337554</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.071921940978</v>
+        <v>27.47719633333334</v>
       </c>
       <c r="N4">
-        <v>27.071921940978</v>
+        <v>82.431589</v>
       </c>
       <c r="O4">
-        <v>0.2178124066490512</v>
+        <v>0.2068795565595709</v>
       </c>
       <c r="P4">
-        <v>0.2178124066490512</v>
+        <v>0.2068795565595709</v>
       </c>
       <c r="Q4">
-        <v>23.0053507659418</v>
+        <v>35.09992929919211</v>
       </c>
       <c r="R4">
-        <v>23.0053507659418</v>
+        <v>315.899363692729</v>
       </c>
       <c r="S4">
-        <v>0.00289508042780027</v>
+        <v>0.003959556014034147</v>
       </c>
       <c r="T4">
-        <v>0.00289508042780027</v>
+        <v>0.003959556014034147</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.849786388129291</v>
+        <v>1.277420333333333</v>
       </c>
       <c r="H5">
-        <v>0.849786388129291</v>
+        <v>3.832261</v>
       </c>
       <c r="I5">
-        <v>0.01329162315563111</v>
+        <v>0.01913942624337554</v>
       </c>
       <c r="J5">
-        <v>0.01329162315563111</v>
+        <v>0.01913942624337554</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.098723972075</v>
+        <v>13.164899</v>
       </c>
       <c r="N5">
-        <v>13.098723972075</v>
+        <v>39.494697</v>
       </c>
       <c r="O5">
-        <v>0.1053883281212728</v>
+        <v>0.09912031905407785</v>
       </c>
       <c r="P5">
-        <v>0.1053883281212728</v>
+        <v>0.09912031905407789</v>
       </c>
       <c r="Q5">
-        <v>11.13111733333217</v>
+        <v>16.81710966887967</v>
       </c>
       <c r="R5">
-        <v>11.13111733333217</v>
+        <v>151.353987019917</v>
       </c>
       <c r="S5">
-        <v>0.00140078194238996</v>
+        <v>0.001897106035755375</v>
       </c>
       <c r="T5">
-        <v>0.00140078194238996</v>
+        <v>0.001897106035755375</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>45.2146001704283</v>
+        <v>45.44725166666667</v>
       </c>
       <c r="H6">
-        <v>45.2146001704283</v>
+        <v>136.341755</v>
       </c>
       <c r="I6">
-        <v>0.7072076406411346</v>
+        <v>0.6809303864519871</v>
       </c>
       <c r="J6">
-        <v>0.7072076406411346</v>
+        <v>0.6809303864519872</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.0375747557458</v>
+        <v>28.21795633333333</v>
       </c>
       <c r="N6">
-        <v>21.0375747557458</v>
+        <v>84.653869</v>
       </c>
       <c r="O6">
-        <v>0.1692618942090072</v>
+        <v>0.2124568395711989</v>
       </c>
       <c r="P6">
-        <v>0.1692618942090072</v>
+        <v>0.212456839571199</v>
       </c>
       <c r="Q6">
-        <v>951.2055311365422</v>
+        <v>1282.428563000011</v>
       </c>
       <c r="R6">
-        <v>951.2055311365422</v>
+        <v>11541.8570670001</v>
       </c>
       <c r="S6">
-        <v>0.1197033048540013</v>
+        <v>0.1446683178735843</v>
       </c>
       <c r="T6">
-        <v>0.1197033048540013</v>
+        <v>0.1446683178735844</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>45.2146001704283</v>
+        <v>45.44725166666667</v>
       </c>
       <c r="H7">
-        <v>45.2146001704283</v>
+        <v>136.341755</v>
       </c>
       <c r="I7">
-        <v>0.7072076406411346</v>
+        <v>0.6809303864519871</v>
       </c>
       <c r="J7">
-        <v>0.7072076406411346</v>
+        <v>0.6809303864519872</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>63.0818615972562</v>
+        <v>63.95730733333333</v>
       </c>
       <c r="N7">
-        <v>63.0818615972562</v>
+        <v>191.871922</v>
       </c>
       <c r="O7">
-        <v>0.5075373710206688</v>
+        <v>0.4815432848151522</v>
       </c>
       <c r="P7">
-        <v>0.5075373710206688</v>
+        <v>0.4815432848151524</v>
       </c>
       <c r="Q7">
-        <v>2852.221150126235</v>
+        <v>2906.683842300345</v>
       </c>
       <c r="R7">
-        <v>2852.221150126235</v>
+        <v>26160.15458070311</v>
       </c>
       <c r="S7">
-        <v>0.3589343066967313</v>
+        <v>0.3278974550225409</v>
       </c>
       <c r="T7">
-        <v>0.3589343066967313</v>
+        <v>0.327897455022541</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>45.2146001704283</v>
+        <v>45.44725166666667</v>
       </c>
       <c r="H8">
-        <v>45.2146001704283</v>
+        <v>136.341755</v>
       </c>
       <c r="I8">
-        <v>0.7072076406411346</v>
+        <v>0.6809303864519871</v>
       </c>
       <c r="J8">
-        <v>0.7072076406411346</v>
+        <v>0.6809303864519872</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>27.071921940978</v>
+        <v>27.47719633333334</v>
       </c>
       <c r="N8">
-        <v>27.071921940978</v>
+        <v>82.431589</v>
       </c>
       <c r="O8">
-        <v>0.2178124066490512</v>
+        <v>0.2068795565595709</v>
       </c>
       <c r="P8">
-        <v>0.2178124066490512</v>
+        <v>0.2068795565595709</v>
       </c>
       <c r="Q8">
-        <v>1224.046126406366</v>
+        <v>1248.763056855411</v>
       </c>
       <c r="R8">
-        <v>1224.046126406366</v>
+        <v>11238.8675116987</v>
       </c>
       <c r="S8">
-        <v>0.1540385982086429</v>
+        <v>0.1408705763971244</v>
       </c>
       <c r="T8">
-        <v>0.1540385982086429</v>
+        <v>0.1408705763971244</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>45.2146001704283</v>
+        <v>45.44725166666667</v>
       </c>
       <c r="H9">
-        <v>45.2146001704283</v>
+        <v>136.341755</v>
       </c>
       <c r="I9">
-        <v>0.7072076406411346</v>
+        <v>0.6809303864519871</v>
       </c>
       <c r="J9">
-        <v>0.7072076406411346</v>
+        <v>0.6809303864519872</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.098723972075</v>
+        <v>13.164899</v>
       </c>
       <c r="N9">
-        <v>13.098723972075</v>
+        <v>39.494697</v>
       </c>
       <c r="O9">
-        <v>0.1053883281212728</v>
+        <v>0.09912031905407785</v>
       </c>
       <c r="P9">
-        <v>0.1053883281212728</v>
+        <v>0.09912031905407789</v>
       </c>
       <c r="Q9">
-        <v>592.2535671401755</v>
+        <v>598.3084780192484</v>
       </c>
       <c r="R9">
-        <v>592.2535671401755</v>
+        <v>5384.776302173235</v>
       </c>
       <c r="S9">
-        <v>0.07453143088175911</v>
+        <v>0.06749403715873749</v>
       </c>
       <c r="T9">
-        <v>0.07453143088175911</v>
+        <v>0.06749403715873753</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.425511621885166</v>
+        <v>0.4966396666666666</v>
       </c>
       <c r="H10">
-        <v>0.425511621885166</v>
+        <v>1.489919</v>
       </c>
       <c r="I10">
-        <v>0.006655484490507666</v>
+        <v>0.007441088905245192</v>
       </c>
       <c r="J10">
-        <v>0.006655484490507666</v>
+        <v>0.007441088905245193</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.0375747557458</v>
+        <v>28.21795633333333</v>
       </c>
       <c r="N10">
-        <v>21.0375747557458</v>
+        <v>84.653869</v>
       </c>
       <c r="O10">
-        <v>0.1692618942090072</v>
+        <v>0.2124568395711989</v>
       </c>
       <c r="P10">
-        <v>0.1692618942090072</v>
+        <v>0.212456839571199</v>
       </c>
       <c r="Q10">
-        <v>8.951732554847821</v>
+        <v>14.01415642740122</v>
       </c>
       <c r="R10">
-        <v>8.951732554847821</v>
+        <v>126.127407846611</v>
       </c>
       <c r="S10">
-        <v>0.001126519911741997</v>
+        <v>0.001580910231776706</v>
       </c>
       <c r="T10">
-        <v>0.001126519911741997</v>
+        <v>0.001580910231776707</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.425511621885166</v>
+        <v>0.4966396666666666</v>
       </c>
       <c r="H11">
-        <v>0.425511621885166</v>
+        <v>1.489919</v>
       </c>
       <c r="I11">
-        <v>0.006655484490507666</v>
+        <v>0.007441088905245192</v>
       </c>
       <c r="J11">
-        <v>0.006655484490507666</v>
+        <v>0.007441088905245193</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>63.0818615972562</v>
+        <v>63.95730733333333</v>
       </c>
       <c r="N11">
-        <v>63.0818615972562</v>
+        <v>191.871922</v>
       </c>
       <c r="O11">
-        <v>0.5075373710206688</v>
+        <v>0.4815432848151522</v>
       </c>
       <c r="P11">
-        <v>0.5075373710206688</v>
+        <v>0.4815432848151524</v>
       </c>
       <c r="Q11">
-        <v>26.84206523978406</v>
+        <v>31.76373579492422</v>
       </c>
       <c r="R11">
-        <v>26.84206523978406</v>
+        <v>285.873622154318</v>
       </c>
       <c r="S11">
-        <v>0.003377907101181096</v>
+        <v>0.003583206394033355</v>
       </c>
       <c r="T11">
-        <v>0.003377907101181096</v>
+        <v>0.003583206394033356</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.425511621885166</v>
+        <v>0.4966396666666666</v>
       </c>
       <c r="H12">
-        <v>0.425511621885166</v>
+        <v>1.489919</v>
       </c>
       <c r="I12">
-        <v>0.006655484490507666</v>
+        <v>0.007441088905245192</v>
       </c>
       <c r="J12">
-        <v>0.006655484490507666</v>
+        <v>0.007441088905245193</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>27.071921940978</v>
+        <v>27.47719633333334</v>
       </c>
       <c r="N12">
-        <v>27.071921940978</v>
+        <v>82.431589</v>
       </c>
       <c r="O12">
-        <v>0.2178124066490512</v>
+        <v>0.2068795565595709</v>
       </c>
       <c r="P12">
-        <v>0.2178124066490512</v>
+        <v>0.2068795565595709</v>
       </c>
       <c r="Q12">
-        <v>11.51941741265416</v>
+        <v>13.64626562792122</v>
       </c>
       <c r="R12">
-        <v>11.51941741265416</v>
+        <v>122.816390651291</v>
       </c>
       <c r="S12">
-        <v>0.001449647094292909</v>
+        <v>0.001539409173037468</v>
       </c>
       <c r="T12">
-        <v>0.001449647094292909</v>
+        <v>0.001539409173037469</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.425511621885166</v>
+        <v>0.4966396666666666</v>
       </c>
       <c r="H13">
-        <v>0.425511621885166</v>
+        <v>1.489919</v>
       </c>
       <c r="I13">
-        <v>0.006655484490507666</v>
+        <v>0.007441088905245192</v>
       </c>
       <c r="J13">
-        <v>0.006655484490507666</v>
+        <v>0.007441088905245193</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.098723972075</v>
+        <v>13.164899</v>
       </c>
       <c r="N13">
-        <v>13.098723972075</v>
+        <v>39.494697</v>
       </c>
       <c r="O13">
-        <v>0.1053883281212728</v>
+        <v>0.09912031905407785</v>
       </c>
       <c r="P13">
-        <v>0.1053883281212728</v>
+        <v>0.09912031905407789</v>
       </c>
       <c r="Q13">
-        <v>5.573659281983737</v>
+        <v>6.538211051060333</v>
       </c>
       <c r="R13">
-        <v>5.573659281983737</v>
+        <v>58.843899459543</v>
       </c>
       <c r="S13">
-        <v>0.0007014103832916643</v>
+        <v>0.0007375631063976623</v>
       </c>
       <c r="T13">
-        <v>0.0007014103832916643</v>
+        <v>0.0007375631063976627</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.4440832587821</v>
+        <v>19.52156333333333</v>
       </c>
       <c r="H14">
-        <v>17.4440832587821</v>
+        <v>58.56469</v>
       </c>
       <c r="I14">
-        <v>0.2728452517127267</v>
+        <v>0.2924890983993922</v>
       </c>
       <c r="J14">
-        <v>0.2728452517127267</v>
+        <v>0.2924890983993922</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>21.0375747557458</v>
+        <v>28.21795633333333</v>
       </c>
       <c r="N14">
-        <v>21.0375747557458</v>
+        <v>84.653869</v>
       </c>
       <c r="O14">
-        <v>0.1692618942090072</v>
+        <v>0.2124568395711989</v>
       </c>
       <c r="P14">
-        <v>0.1692618942090072</v>
+        <v>0.212456839571199</v>
       </c>
       <c r="Q14">
-        <v>366.9812056020823</v>
+        <v>550.8586216984011</v>
       </c>
       <c r="R14">
-        <v>366.9812056020823</v>
+        <v>4957.72759528561</v>
       </c>
       <c r="S14">
-        <v>0.04618230413082947</v>
+        <v>0.06214130945496427</v>
       </c>
       <c r="T14">
-        <v>0.04618230413082947</v>
+        <v>0.0621413094549643</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.4440832587821</v>
+        <v>19.52156333333333</v>
       </c>
       <c r="H15">
-        <v>17.4440832587821</v>
+        <v>58.56469</v>
       </c>
       <c r="I15">
-        <v>0.2728452517127267</v>
+        <v>0.2924890983993922</v>
       </c>
       <c r="J15">
-        <v>0.2728452517127267</v>
+        <v>0.2924890983993922</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>63.0818615972562</v>
+        <v>63.95730733333333</v>
       </c>
       <c r="N15">
-        <v>63.0818615972562</v>
+        <v>191.871922</v>
       </c>
       <c r="O15">
-        <v>0.5075373710206688</v>
+        <v>0.4815432848151522</v>
       </c>
       <c r="P15">
-        <v>0.5075373710206688</v>
+        <v>0.4815432848151524</v>
       </c>
       <c r="Q15">
-        <v>1100.405245821506</v>
+        <v>1248.546625737131</v>
       </c>
       <c r="R15">
-        <v>1100.405245821506</v>
+        <v>11236.91963163418</v>
       </c>
       <c r="S15">
-        <v>0.1384791617497499</v>
+        <v>0.1408461612158656</v>
       </c>
       <c r="T15">
-        <v>0.1384791617497499</v>
+        <v>0.1408461612158657</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.4440832587821</v>
+        <v>19.52156333333333</v>
       </c>
       <c r="H16">
-        <v>17.4440832587821</v>
+        <v>58.56469</v>
       </c>
       <c r="I16">
-        <v>0.2728452517127267</v>
+        <v>0.2924890983993922</v>
       </c>
       <c r="J16">
-        <v>0.2728452517127267</v>
+        <v>0.2924890983993922</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>27.071921940978</v>
+        <v>27.47719633333334</v>
       </c>
       <c r="N16">
-        <v>27.071921940978</v>
+        <v>82.431589</v>
       </c>
       <c r="O16">
-        <v>0.2178124066490512</v>
+        <v>0.2068795565595709</v>
       </c>
       <c r="P16">
-        <v>0.2178124066490512</v>
+        <v>0.2068795565595709</v>
       </c>
       <c r="Q16">
-        <v>472.2448603136702</v>
+        <v>536.3978284436012</v>
       </c>
       <c r="R16">
-        <v>472.2448603136702</v>
+        <v>4827.58045599241</v>
       </c>
       <c r="S16">
-        <v>0.05942908091831516</v>
+        <v>0.06051001497537496</v>
       </c>
       <c r="T16">
-        <v>0.05942908091831516</v>
+        <v>0.06051001497537498</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.4440832587821</v>
+        <v>19.52156333333333</v>
       </c>
       <c r="H17">
-        <v>17.4440832587821</v>
+        <v>58.56469</v>
       </c>
       <c r="I17">
-        <v>0.2728452517127267</v>
+        <v>0.2924890983993922</v>
       </c>
       <c r="J17">
-        <v>0.2728452517127267</v>
+        <v>0.2924890983993922</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.098723972075</v>
+        <v>13.164899</v>
       </c>
       <c r="N17">
-        <v>13.098723972075</v>
+        <v>39.494697</v>
       </c>
       <c r="O17">
-        <v>0.1053883281212728</v>
+        <v>0.09912031905407785</v>
       </c>
       <c r="P17">
-        <v>0.1053883281212728</v>
+        <v>0.09912031905407789</v>
       </c>
       <c r="Q17">
-        <v>228.4952315526813</v>
+        <v>256.9994096054367</v>
       </c>
       <c r="R17">
-        <v>228.4952315526813</v>
+        <v>2312.99468644893</v>
       </c>
       <c r="S17">
-        <v>0.02875470491383212</v>
+        <v>0.02899161275318732</v>
       </c>
       <c r="T17">
-        <v>0.02875470491383212</v>
+        <v>0.02899161275318734</v>
       </c>
     </row>
   </sheetData>
